--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="254">
   <si>
     <t>id</t>
   </si>
@@ -98,19 +98,22 @@
     <t>motivo_consulta</t>
   </si>
   <si>
-    <t>sdfsdfsdfdsf</t>
+    <t>Bernardo</t>
   </si>
   <si>
     <t>femenino</t>
   </si>
   <si>
+    <t>sdafdsfdsfsadf</t>
+  </si>
+  <si>
     <t>soltero</t>
   </si>
   <si>
-    <t>998877665544</t>
-  </si>
-  <si>
-    <t>9988667755</t>
+    <t>9988776644</t>
+  </si>
+  <si>
+    <t>9988776655</t>
   </si>
   <si>
     <t>id_ficha</t>
@@ -170,7 +173,7 @@
     <t>Ocupacion</t>
   </si>
   <si>
-    <t>3</t>
+    <t>7</t>
   </si>
   <si>
     <t>enfermedad</t>
@@ -269,6 +272,9 @@
     <t>descripcion</t>
   </si>
   <si>
+    <t>sdafdsfdsfsadfsdafdsfdsfsadfsdafdsfdsfsadf</t>
+  </si>
+  <si>
     <t>habitus_exterior</t>
   </si>
   <si>
@@ -299,22 +305,22 @@
     <t>resultados_previos_actuales</t>
   </si>
   <si>
-    <t>4.70</t>
-  </si>
-  <si>
-    <t>9.00</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>4.80</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3.60</t>
+    <t>sdafdsfdsfsadfsdafdsfdsfsadf</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>89.90</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4.60</t>
   </si>
   <si>
     <t>id_partes</t>
@@ -437,9 +443,6 @@
     <t>0°-35°/60°</t>
   </si>
   <si>
-    <t>No hay información</t>
-  </si>
-  <si>
     <t>Flexión de hombro</t>
   </si>
   <si>
@@ -659,7 +662,7 @@
     <t>Extensión de cuello</t>
   </si>
   <si>
-    <t>Extensión conjunta (cabeza y cuello)</t>
+    <t>Extensión conjunta</t>
   </si>
   <si>
     <t>Flexión de cabeza</t>
@@ -800,7 +803,7 @@
     <t>nombreYfirma_tratante</t>
   </si>
   <si>
-    <t>5643</t>
+    <t>5289</t>
   </si>
 </sst>
 </file>
@@ -1061,13 +1064,12 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="fuerza_muscular_cab" displayName="fuerza_muscular_cab" ref="A1:D10" totalsRowShown="0">
-  <autoFilter ref="A1:D10"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="fuerza_muscular_cab" displayName="fuerza_muscular_cab" ref="A1:C10" totalsRowShown="0">
+  <autoFilter ref="A1:C10"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="id_ficha"/>
     <tableColumn id="2" name="movimiento"/>
     <tableColumn id="3" name="valores_obtenidos"/>
-    <tableColumn id="4" name="observaciones"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1089,13 +1091,12 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="fuerza_muscular_cab1" displayName="fuerza_muscular_cab1" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="fuerza_muscular_cab1" displayName="fuerza_muscular_cab1" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="id_ficha"/>
     <tableColumn id="2" name="movimiento"/>
     <tableColumn id="3" name="valores_obtenidos"/>
-    <tableColumn id="4" name="observaciones"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1599,16 +1600,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" customWidth="1"/>
     <col min="7" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="13" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="28.7109375" customWidth="1"/>
     <col min="15" max="15" width="30.7109375" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" customWidth="1"/>
@@ -1674,10 +1677,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" s="1">
-        <v>45589</v>
+        <v>45621</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1686,46 +1689,46 @@
         <v>19</v>
       </c>
       <c r="E2">
-        <v>7387</v>
+        <v>242576</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1">
-        <v>45603</v>
+        <v>45609</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1746,264 +1749,264 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="33.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2023,79 +2026,79 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2115,63 +2118,63 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2192,45 +2195,45 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="5" width="14.7109375" customWidth="1"/>
+    <col min="3" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -2253,205 +2256,205 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2472,230 +2475,230 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2715,51 +2718,51 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2779,63 +2782,63 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2879,150 +2882,150 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="V2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="X2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3043,48 +3046,48 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="5" width="14.7109375" customWidth="1"/>
+    <col min="3" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3104,137 +3107,137 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="5" width="14.7109375" customWidth="1"/>
+    <col min="2" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" customWidth="1"/>
     <col min="16" max="16" width="17.7109375" customWidth="1"/>
-    <col min="17" max="19" width="14.7109375" customWidth="1"/>
+    <col min="17" max="19" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>74.5</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3247,155 +3250,125 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3416,48 +3389,48 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="5" width="14.7109375" customWidth="1"/>
+    <col min="3" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3470,7 +3443,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3478,119 +3451,95 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3612,189 +3561,189 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3814,63 +3763,63 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3891,95 +3840,95 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4000,95 +3949,95 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4109,95 +4058,95 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4217,94 +4166,94 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4324,71 +4273,71 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="3" width="14.7109375" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="27.7109375" customWidth="1"/>
     <col min="9" max="9" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E2" s="1">
-        <v>45576</v>
+        <v>45601</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4410,214 +4359,213 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="4" width="4.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4641,190 +4589,189 @@
     <col min="3" max="4" width="4.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="7" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4844,7 +4791,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
@@ -4852,71 +4799,71 @@
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>45573</v>
+        <v>45608</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
-        <v>45546</v>
+        <v>45602</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4936,23 +4883,23 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4972,93 +4919,93 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
     <col min="12" max="12" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5079,48 +5026,48 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="5" width="14.7109375" customWidth="1"/>
+    <col min="3" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5140,275 +5087,275 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="46.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>88701</v>
+        <v>242591</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Reporte.xlsx
+++ b/Reporte.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="264">
   <si>
     <t>id</t>
   </si>
@@ -173,6 +173,9 @@
     <t>Ocupacion</t>
   </si>
   <si>
+    <t>Hola</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -272,9 +275,6 @@
     <t>descripcion</t>
   </si>
   <si>
-    <t>sdafdsfdsfsadfsdafdsfdsfsadfsdafdsfdsfsadf</t>
-  </si>
-  <si>
     <t>habitus_exterior</t>
   </si>
   <si>
@@ -305,9 +305,6 @@
     <t>resultados_previos_actuales</t>
   </si>
   <si>
-    <t>sdafdsfdsfsadfsdafdsfdsfsadf</t>
-  </si>
-  <si>
     <t>4.50</t>
   </si>
   <si>
@@ -320,7 +317,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>4.60</t>
+    <t>4.00</t>
   </si>
   <si>
     <t>id_partes</t>
@@ -497,6 +494,9 @@
     <t>resultadosyanalisis</t>
   </si>
   <si>
+    <t>Hola1</t>
+  </si>
+  <si>
     <t>Flexión de cadera</t>
   </si>
   <si>
@@ -782,6 +782,18 @@
     <t>dosis</t>
   </si>
   <si>
+    <t>vxcvcxvcxv</t>
+  </si>
+  <si>
+    <t>cxvxczvzxcvxczv</t>
+  </si>
+  <si>
+    <t>xcvxczvzxcvxc</t>
+  </si>
+  <si>
+    <t>vcxvxczvxzcvcxvzx</t>
+  </si>
+  <si>
     <t>nombre</t>
   </si>
   <si>
@@ -803,7 +815,25 @@
     <t>nombreYfirma_tratante</t>
   </si>
   <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>sdfsdfsdfsdfsdaf</t>
+  </si>
+  <si>
     <t>5289</t>
+  </si>
+  <si>
+    <t>7853</t>
+  </si>
+  <si>
+    <t>fsdfdsfsdfsdaf</t>
+  </si>
+  <si>
+    <t>sdsdfsadfsadf</t>
+  </si>
+  <si>
+    <t>sdfsadfasdf</t>
   </si>
 </sst>
 </file>
@@ -882,428 +912,456 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="goniometria_sup" displayName="goniometria_sup" ref="A1:E15" totalsRowShown="0">
-  <autoFilter ref="A1:E15"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="rango_normal"/>
-    <tableColumn id="3" name="izquierdo"/>
-    <tableColumn id="4" name="movimiento"/>
-    <tableColumn id="5" name="derecho"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="goniometria_sup" displayName="goniometria_sup" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="rango_normal"/>
+    <tableColumn id="4" name="izquierdo"/>
+    <tableColumn id="5" name="movimiento"/>
+    <tableColumn id="6" name="derecho"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="reflejos_sup" displayName="reflejos_sup" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="izq"/>
-    <tableColumn id="3" name="rot"/>
-    <tableColumn id="4" name="der"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="reflejos_sup" displayName="reflejos_sup" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="izq"/>
+    <tableColumn id="4" name="rot"/>
+    <tableColumn id="5" name="der"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="pruebas_eval_sup" displayName="pruebas_eval_sup" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="pruebas"/>
-    <tableColumn id="3" name="resultadosyanalisis"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="pruebas_eval_sup" displayName="pruebas_eval_sup" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="pruebas"/>
+    <tableColumn id="4" name="resultadosyanalisis"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="partes_cuerpo_inf" displayName="partes_cuerpo_inf" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="id_partes"/>
-    <tableColumn id="3" name="observacion"/>
-    <tableColumn id="4" name="palpacion"/>
-    <tableColumn id="5" name="descripcion"/>
-    <tableColumn id="6" name="dolor"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="partes_cuerpo_inf" displayName="partes_cuerpo_inf" ref="A1:G2" totalsRowShown="0">
+  <autoFilter ref="A1:G2"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="id_partes"/>
+    <tableColumn id="4" name="observacion"/>
+    <tableColumn id="5" name="palpacion"/>
+    <tableColumn id="6" name="descripcion"/>
+    <tableColumn id="7" name="dolor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="fuerza_muscular_inf" displayName="fuerza_muscular_inf" ref="A1:D14" totalsRowShown="0">
-  <autoFilter ref="A1:D14"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="derecha"/>
-    <tableColumn id="3" name="movimiento"/>
-    <tableColumn id="4" name="izquierda"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="fuerza_muscular_inf" displayName="fuerza_muscular_inf" ref="A1:E14" totalsRowShown="0">
+  <autoFilter ref="A1:E14"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="derecha"/>
+    <tableColumn id="4" name="movimiento"/>
+    <tableColumn id="5" name="izquierda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="goniometria_inf" displayName="goniometria_inf" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="rango_normal"/>
-    <tableColumn id="3" name="izquierdo"/>
-    <tableColumn id="4" name="movimiento"/>
-    <tableColumn id="5" name="derecho"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="goniometria_inf" displayName="goniometria_inf" ref="A1:F13" totalsRowShown="0">
+  <autoFilter ref="A1:F13"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="rango_normal"/>
+    <tableColumn id="4" name="izquierdo"/>
+    <tableColumn id="5" name="movimiento"/>
+    <tableColumn id="6" name="derecho"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="reflejos_inf" displayName="reflejos_inf" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="izq"/>
-    <tableColumn id="3" name="rot"/>
-    <tableColumn id="4" name="der"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="reflejos_inf" displayName="reflejos_inf" ref="A1:E3" totalsRowShown="0">
+  <autoFilter ref="A1:E3"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="izq"/>
+    <tableColumn id="4" name="rot"/>
+    <tableColumn id="5" name="der"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="pruebas_eval_inf" displayName="pruebas_eval_inf" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="pruebas"/>
-    <tableColumn id="3" name="resultadosyanalisis"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="pruebas_eval_inf" displayName="pruebas_eval_inf" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="pruebas"/>
+    <tableColumn id="4" name="resultadosyanalisis"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="ciclo_marcha_inf" displayName="ciclo_marcha_inf" ref="A1:X2" totalsRowShown="0">
-  <autoFilter ref="A1:X2"/>
-  <tableColumns count="24">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="fase_apoyo_completo"/>
-    <tableColumn id="3" name="contacto_talon_izquierdo"/>
-    <tableColumn id="4" name="contacto_talon_derecho"/>
-    <tableColumn id="5" name="apoyo_plantar_izquierdo"/>
-    <tableColumn id="6" name="apoyo_plantar_derecho"/>
-    <tableColumn id="7" name="apoyo_medio_izquierdo"/>
-    <tableColumn id="8" name="apoyo_medio_derecho"/>
-    <tableColumn id="9" name="fase_oscilacion_completo"/>
-    <tableColumn id="10" name="balanceo_inicial_izquierdo"/>
-    <tableColumn id="11" name="balanceo_inicial_derecho"/>
-    <tableColumn id="12" name="balanceo_medio_izquierdo"/>
-    <tableColumn id="13" name="balanceo_medio_derecho"/>
-    <tableColumn id="14" name="balanceo_terminal_izquierdo"/>
-    <tableColumn id="15" name="balanceo_terminal_derecho"/>
-    <tableColumn id="16" name="rotacion_pelvica_completo"/>
-    <tableColumn id="17" name="inclinacion_pelvica_completo"/>
-    <tableColumn id="18" name="flexion_rodilla_izquierdo"/>
-    <tableColumn id="19" name="flexion_rodilla_derecho"/>
-    <tableColumn id="20" name="movimientos_coordinados_rodilla_tobillo_izquierdo"/>
-    <tableColumn id="21" name="movimientos_coordinados_rodilla_tobillo_derecho"/>
-    <tableColumn id="22" name="movimiento_centro_gravedad_completo"/>
-    <tableColumn id="23" name="cadencia_completo"/>
-    <tableColumn id="24" name="balanceo_ms_completo"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="ciclo_marcha_inf" displayName="ciclo_marcha_inf" ref="A1:Y2" totalsRowShown="0">
+  <autoFilter ref="A1:Y2"/>
+  <tableColumns count="25">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="fase_apoyo_completo"/>
+    <tableColumn id="4" name="contacto_talon_izquierdo"/>
+    <tableColumn id="5" name="contacto_talon_derecho"/>
+    <tableColumn id="6" name="apoyo_plantar_izquierdo"/>
+    <tableColumn id="7" name="apoyo_plantar_derecho"/>
+    <tableColumn id="8" name="apoyo_medio_izquierdo"/>
+    <tableColumn id="9" name="apoyo_medio_derecho"/>
+    <tableColumn id="10" name="fase_oscilacion_completo"/>
+    <tableColumn id="11" name="balanceo_inicial_izquierdo"/>
+    <tableColumn id="12" name="balanceo_inicial_derecho"/>
+    <tableColumn id="13" name="balanceo_medio_izquierdo"/>
+    <tableColumn id="14" name="balanceo_medio_derecho"/>
+    <tableColumn id="15" name="balanceo_terminal_izquierdo"/>
+    <tableColumn id="16" name="balanceo_terminal_derecho"/>
+    <tableColumn id="17" name="rotacion_pelvica_completo"/>
+    <tableColumn id="18" name="inclinacion_pelvica_completo"/>
+    <tableColumn id="19" name="flexion_rodilla_izquierdo"/>
+    <tableColumn id="20" name="flexion_rodilla_derecho"/>
+    <tableColumn id="21" name="movimientos_coordinados_rodilla_tobillo_izquierdo"/>
+    <tableColumn id="22" name="movimientos_coordinados_rodilla_tobillo_derecho"/>
+    <tableColumn id="23" name="movimiento_centro_gravedad_completo"/>
+    <tableColumn id="24" name="cadencia_completo"/>
+    <tableColumn id="25" name="balanceo_ms_completo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="partes_cuerpo_cab" displayName="partes_cuerpo_cab" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="id_partes"/>
-    <tableColumn id="3" name="observacion"/>
-    <tableColumn id="4" name="palpacion"/>
-    <tableColumn id="5" name="descripcion"/>
-    <tableColumn id="6" name="dolor"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="partes_cuerpo_cab" displayName="partes_cuerpo_cab" ref="A1:G2" totalsRowShown="0">
+  <autoFilter ref="A1:G2"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="id_partes"/>
+    <tableColumn id="4" name="observacion"/>
+    <tableColumn id="5" name="palpacion"/>
+    <tableColumn id="6" name="descripcion"/>
+    <tableColumn id="7" name="dolor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="antecedentes_personales" displayName="antecedentes_personales" ref="A1:S2" totalsRowShown="0">
-  <autoFilter ref="A1:S2"/>
-  <tableColumns count="19">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="PropiaRenta"/>
-    <tableColumn id="3" name="Ventilacion"/>
-    <tableColumn id="4" name="Iluminacion"/>
-    <tableColumn id="5" name="Piso"/>
-    <tableColumn id="6" name="Electrodomesticos"/>
-    <tableColumn id="7" name="Servicios"/>
-    <tableColumn id="8" name="DescripcionVivienda"/>
-    <tableColumn id="9" name="NoComidasDia"/>
-    <tableColumn id="10" name="AguaLts"/>
-    <tableColumn id="11" name="GruposAlimenticios"/>
-    <tableColumn id="12" name="DescripcionRutinaAlimenticia"/>
-    <tableColumn id="13" name="HigieneBucal"/>
-    <tableColumn id="14" name="BanosDia"/>
-    <tableColumn id="15" name="CambiosRopa"/>
-    <tableColumn id="16" name="ActividadFisica"/>
-    <tableColumn id="17" name="Deporte"/>
-    <tableColumn id="18" name="Ocio"/>
-    <tableColumn id="19" name="Ocupacion"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="antecedentes_personales" displayName="antecedentes_personales" ref="A1:T2" totalsRowShown="0">
+  <autoFilter ref="A1:T2"/>
+  <tableColumns count="20">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="PropiaRenta"/>
+    <tableColumn id="4" name="Ventilacion"/>
+    <tableColumn id="5" name="Iluminacion"/>
+    <tableColumn id="6" name="Piso"/>
+    <tableColumn id="7" name="Electrodomesticos"/>
+    <tableColumn id="8" name="Servicios"/>
+    <tableColumn id="9" name="DescripcionVivienda"/>
+    <tableColumn id="10" name="NoComidasDia"/>
+    <tableColumn id="11" name="AguaLts"/>
+    <tableColumn id="12" name="GruposAlimenticios"/>
+    <tableColumn id="13" name="DescripcionRutinaAlimenticia"/>
+    <tableColumn id="14" name="HigieneBucal"/>
+    <tableColumn id="15" name="BanosDia"/>
+    <tableColumn id="16" name="CambiosRopa"/>
+    <tableColumn id="17" name="ActividadFisica"/>
+    <tableColumn id="18" name="Deporte"/>
+    <tableColumn id="19" name="Ocio"/>
+    <tableColumn id="20" name="Ocupacion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="fuerza_muscular_cab" displayName="fuerza_muscular_cab" ref="A1:C10" totalsRowShown="0">
-  <autoFilter ref="A1:C10"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="movimiento"/>
-    <tableColumn id="3" name="valores_obtenidos"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="fuerza_muscular_cab" displayName="fuerza_muscular_cab" ref="A1:D10" totalsRowShown="0">
+  <autoFilter ref="A1:D10"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="movimiento"/>
+    <tableColumn id="4" name="valores_obtenidos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="partes_cuerpo_cab1" displayName="partes_cuerpo_cab1" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="id_partes"/>
-    <tableColumn id="3" name="observacion"/>
-    <tableColumn id="4" name="palpacion"/>
-    <tableColumn id="5" name="descripcion"/>
-    <tableColumn id="6" name="dolor"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="partes_cuerpo_cab1" displayName="partes_cuerpo_cab1" ref="A1:G2" totalsRowShown="0">
+  <autoFilter ref="A1:G2"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="id_partes"/>
+    <tableColumn id="4" name="observacion"/>
+    <tableColumn id="5" name="palpacion"/>
+    <tableColumn id="6" name="descripcion"/>
+    <tableColumn id="7" name="dolor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="fuerza_muscular_cab1" displayName="fuerza_muscular_cab1" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="movimiento"/>
-    <tableColumn id="3" name="valores_obtenidos"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="fuerza_muscular_cab1" displayName="fuerza_muscular_cab1" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="movimiento"/>
+    <tableColumn id="4" name="valores_obtenidos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="goniometria_cab" displayName="goniometria_cab" ref="A1:D13" totalsRowShown="0">
-  <autoFilter ref="A1:D13"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="rangos_normales"/>
-    <tableColumn id="3" name="movimientos"/>
-    <tableColumn id="4" name="resultados"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="goniometria_cab" displayName="goniometria_cab" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="rangos_normales"/>
+    <tableColumn id="4" name="movimientos"/>
+    <tableColumn id="5" name="resultados"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="pruebas_eval_cab" displayName="pruebas_eval_cab" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="pruebas"/>
-    <tableColumn id="3" name="resultadosyanalisis"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="pruebas_eval_cab" displayName="pruebas_eval_cab" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="pruebas"/>
+    <tableColumn id="4" name="resultadosyanalisis"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="vista_frontal" displayName="vista_frontal" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="alineacion_corporal"/>
-    <tableColumn id="3" name="observaciones"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="vista_frontal" displayName="vista_frontal" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="alineacion_corporal"/>
+    <tableColumn id="4" name="observaciones"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="vista_lateral" displayName="vista_lateral" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="alineacion_corporal"/>
-    <tableColumn id="3" name="observaciones"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="vista_lateral" displayName="vista_lateral" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="alineacion_corporal"/>
+    <tableColumn id="4" name="observaciones"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="vista_posterior" displayName="vista_posterior" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="alineacion_corporal"/>
-    <tableColumn id="3" name="observaciones"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="vista_posterior" displayName="vista_posterior" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="alineacion_corporal"/>
+    <tableColumn id="4" name="observaciones"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="plan_tratamientos" displayName="plan_tratamientos" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="objetivo"/>
-    <tableColumn id="3" name="modalidad_terapeutica"/>
-    <tableColumn id="4" name="descripcion"/>
-    <tableColumn id="5" name="dosis"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="plan_tratamientos" displayName="plan_tratamientos" ref="A1:F6" totalsRowShown="0">
+  <autoFilter ref="A1:F6"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="objetivo"/>
+    <tableColumn id="4" name="modalidad_terapeutica"/>
+    <tableColumn id="5" name="descripcion"/>
+    <tableColumn id="6" name="dosis"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="notas_seguimientos" displayName="notas_seguimientos" ref="A1:I2" totalsRowShown="0">
-  <autoFilter ref="A1:I2"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="nombre"/>
-    <tableColumn id="3" name="diagnostico"/>
-    <tableColumn id="4" name="folio"/>
-    <tableColumn id="5" name="fecha"/>
-    <tableColumn id="6" name="numero_sesion"/>
-    <tableColumn id="7" name="notas"/>
-    <tableColumn id="8" name="sugerencias_observaciones"/>
-    <tableColumn id="9" name="nombreYfirma_tratante"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="notas_seguimientos" displayName="notas_seguimientos" ref="A1:J3" totalsRowShown="0">
+  <autoFilter ref="A1:J3"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="nombre"/>
+    <tableColumn id="4" name="diagnostico"/>
+    <tableColumn id="5" name="folio"/>
+    <tableColumn id="6" name="fecha"/>
+    <tableColumn id="7" name="numero_sesion"/>
+    <tableColumn id="8" name="notas"/>
+    <tableColumn id="9" name="sugerencias_observaciones"/>
+    <tableColumn id="10" name="nombreYfirma_tratante"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="antecedentes_heredo" displayName="antecedentes_heredo" ref="A1:I7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="antecedentes_heredo" displayName="antecedentes_heredo" ref="A1:J7" totalsRowShown="0">
+  <autoFilter ref="A1:J7"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="enfermedad"/>
+    <tableColumn id="4" name="si"/>
+    <tableColumn id="5" name="no"/>
+    <tableColumn id="6" name="parentesco"/>
+    <tableColumn id="7" name="vivo"/>
+    <tableColumn id="8" name="muerto"/>
+    <tableColumn id="9" name="otro"/>
+    <tableColumn id="10" name="observaciones"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="antecedentes_pat" displayName="antecedentes_pat" ref="A1:I7" totalsRowShown="0">
   <autoFilter ref="A1:I7"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="enfermedad"/>
-    <tableColumn id="3" name="si"/>
-    <tableColumn id="4" name="no"/>
-    <tableColumn id="5" name="parentesco"/>
-    <tableColumn id="6" name="vivo"/>
-    <tableColumn id="7" name="muerto"/>
-    <tableColumn id="8" name="otro"/>
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="patologia"/>
+    <tableColumn id="4" name="si"/>
+    <tableColumn id="5" name="no"/>
+    <tableColumn id="6" name="edad_presentacion"/>
+    <tableColumn id="7" name="secuelas_complicaciones"/>
+    <tableColumn id="8" name="inmunizaciones"/>
     <tableColumn id="9" name="observaciones"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="antecedentes_pat" displayName="antecedentes_pat" ref="A1:H7" totalsRowShown="0">
-  <autoFilter ref="A1:H7"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="patologia"/>
-    <tableColumn id="3" name="si"/>
-    <tableColumn id="4" name="no"/>
-    <tableColumn id="5" name="edad_presentacion"/>
-    <tableColumn id="6" name="secuelas_complicaciones"/>
-    <tableColumn id="7" name="inmunizaciones"/>
-    <tableColumn id="8" name="observaciones"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="antecedentes_gineco" displayName="antecedentes_gineco" ref="A1:K2" totalsRowShown="0">
+  <autoFilter ref="A1:K2"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="menarquia"/>
+    <tableColumn id="4" name="fecha_ultima_menstruacion"/>
+    <tableColumn id="5" name="caracteristicas_menstruacion"/>
+    <tableColumn id="6" name="inicio_vida_sexual"/>
+    <tableColumn id="7" name="uso_anticonceptivos"/>
+    <tableColumn id="8" name="numero_embarazos"/>
+    <tableColumn id="9" name="numero_partos"/>
+    <tableColumn id="10" name="numero_cesareas"/>
+    <tableColumn id="11" name="observaciones"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="antecedentes_gineco" displayName="antecedentes_gineco" ref="A1:J2" totalsRowShown="0">
-  <autoFilter ref="A1:J2"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="menarquia"/>
-    <tableColumn id="3" name="fecha_ultima_menstruacion"/>
-    <tableColumn id="4" name="caracteristicas_menstruacion"/>
-    <tableColumn id="5" name="inicio_vida_sexual"/>
-    <tableColumn id="6" name="uso_anticonceptivos"/>
-    <tableColumn id="7" name="numero_embarazos"/>
-    <tableColumn id="8" name="numero_partos"/>
-    <tableColumn id="9" name="numero_cesareas"/>
-    <tableColumn id="10" name="observaciones"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="antecedentes_padec" displayName="antecedentes_padec" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="descripcion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="antecedentes_padec" displayName="antecedentes_padec" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="descripcion"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="exploracion" displayName="exploracion" ref="A1:M2" totalsRowShown="0">
+  <autoFilter ref="A1:M2"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="habitus_exterior"/>
+    <tableColumn id="4" name="peso"/>
+    <tableColumn id="5" name="altura"/>
+    <tableColumn id="6" name="imc"/>
+    <tableColumn id="7" name="temperatura"/>
+    <tableColumn id="8" name="pulso_cardiaco"/>
+    <tableColumn id="9" name="frecuencia_respiratoria"/>
+    <tableColumn id="10" name="presion_arterial"/>
+    <tableColumn id="11" name="saturacion_oxigeno"/>
+    <tableColumn id="12" name="observaciones"/>
+    <tableColumn id="13" name="resultados_previos_actuales"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="exploracion" displayName="exploracion" ref="A1:L2" totalsRowShown="0">
-  <autoFilter ref="A1:L2"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="habitus_exterior"/>
-    <tableColumn id="3" name="peso"/>
-    <tableColumn id="4" name="altura"/>
-    <tableColumn id="5" name="imc"/>
-    <tableColumn id="6" name="temperatura"/>
-    <tableColumn id="7" name="pulso_cardiaco"/>
-    <tableColumn id="8" name="frecuencia_respiratoria"/>
-    <tableColumn id="9" name="presion_arterial"/>
-    <tableColumn id="10" name="saturacion_oxigeno"/>
-    <tableColumn id="11" name="observaciones"/>
-    <tableColumn id="12" name="resultados_previos_actuales"/>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="partes_cuerpo_sup" displayName="partes_cuerpo_sup" ref="A1:G2" totalsRowShown="0">
+  <autoFilter ref="A1:G2"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="id_partes"/>
+    <tableColumn id="4" name="observacion"/>
+    <tableColumn id="5" name="palpacion"/>
+    <tableColumn id="6" name="descripcion"/>
+    <tableColumn id="7" name="dolor"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="partes_cuerpo_sup" displayName="partes_cuerpo_sup" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="id_partes"/>
-    <tableColumn id="3" name="observacion"/>
-    <tableColumn id="4" name="palpacion"/>
-    <tableColumn id="5" name="descripcion"/>
-    <tableColumn id="6" name="dolor"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="fuerza_muscular_sup" displayName="fuerza_muscular_sup" ref="A1:D19" totalsRowShown="0">
-  <autoFilter ref="A1:D19"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="id_ficha"/>
-    <tableColumn id="2" name="derecha"/>
-    <tableColumn id="3" name="movimiento"/>
-    <tableColumn id="4" name="izquierda"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="fuerza_muscular_sup" displayName="fuerza_muscular_sup" ref="A1:E19" totalsRowShown="0">
+  <autoFilter ref="A1:E19"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="nombre_paciente"/>
+    <tableColumn id="2" name="id_ficha"/>
+    <tableColumn id="3" name="derecha"/>
+    <tableColumn id="4" name="movimiento"/>
+    <tableColumn id="5" name="izquierda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1680,7 +1738,7 @@
         <v>242591</v>
       </c>
       <c r="B2" s="1">
-        <v>45621</v>
+        <v>45632</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1695,7 +1753,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="1">
-        <v>45609</v>
+        <v>45632</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -1741,271 +1799,317 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
+      </c>
+      <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>242591</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>133</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>242591</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>242591</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>242591</v>
+      </c>
+      <c r="C5" t="s">
         <v>123</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>134</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>242591</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>242591</v>
+      </c>
+      <c r="C6" t="s">
         <v>124</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>135</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>242591</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>242591</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>242591</v>
+      </c>
+      <c r="C8" t="s">
         <v>125</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>242591</v>
-      </c>
-      <c r="B7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>242591</v>
+      </c>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>242591</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>242591</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>242591</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
         <v>137</v>
       </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>242591</v>
-      </c>
-      <c r="B8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>242591</v>
-      </c>
-      <c r="B9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>242591</v>
-      </c>
-      <c r="B10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>242591</v>
-      </c>
-      <c r="B11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>242591</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>242591</v>
+      </c>
+      <c r="C13" t="s">
         <v>129</v>
       </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
         <v>138</v>
       </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>242591</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>242591</v>
+      </c>
+      <c r="C14" t="s">
         <v>130</v>
       </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
         <v>139</v>
       </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>242591</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>242591</v>
+      </c>
+      <c r="C15" t="s">
         <v>131</v>
       </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
         <v>140</v>
       </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>242591</v>
-      </c>
-      <c r="B15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2019,85 +2123,101 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>143</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>145</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>242591</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>242591</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>146</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>242591</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>242591</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>147</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>242591</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2111,69 +2231,85 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
         <v>149</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>242591</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>242591</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>242591</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>242591</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>242591</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2187,55 +2323,63 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>242591</v>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
     </row>
@@ -2249,211 +2393,254 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>151</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>242591</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>152</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>242591</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>242591</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>153</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>242591</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>242591</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>154</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>242591</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>242591</v>
       </c>
       <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>155</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>242591</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>242591</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>156</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>242591</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>242591</v>
       </c>
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
         <v>157</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>242591</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>242591</v>
       </c>
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
         <v>158</v>
       </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>242591</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>242591</v>
       </c>
       <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>159</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>242591</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>242591</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>160</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>242591</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>242591</v>
       </c>
       <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>161</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>242591</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>242591</v>
       </c>
       <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
         <v>162</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>242591</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>242591</v>
       </c>
       <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
         <v>163</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2467,237 +2654,277 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2" t="s">
         <v>164</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
         <v>151</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>242591</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
+      </c>
+      <c r="C3" t="s">
         <v>165</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>168</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>242591</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>242591</v>
+      </c>
+      <c r="C4" t="s">
         <v>166</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>169</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>242591</v>
-      </c>
-      <c r="B5" t="s">
-        <v>124</v>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>242591</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>170</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>242591</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>242591</v>
+      </c>
+      <c r="C6" t="s">
         <v>166</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>171</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>242591</v>
-      </c>
-      <c r="B7" t="s">
-        <v>122</v>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>242591</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>172</v>
       </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>242591</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>242591</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>242591</v>
+      </c>
+      <c r="C9" t="s">
         <v>126</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>242591</v>
-      </c>
-      <c r="B9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
         <v>174</v>
       </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>242591</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>242591</v>
+      </c>
+      <c r="C10" t="s">
         <v>166</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>175</v>
       </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>242591</v>
-      </c>
-      <c r="B11" t="s">
-        <v>124</v>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>242591</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
         <v>176</v>
       </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>242591</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>242591</v>
+      </c>
+      <c r="C12" t="s">
         <v>167</v>
       </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
       <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
         <v>161</v>
       </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>242591</v>
-      </c>
-      <c r="B13" t="s">
-        <v>124</v>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>242591</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
         <v>177</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2711,57 +2938,67 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>143</v>
       </c>
-      <c r="D1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>178</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>242591</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>179</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2775,69 +3012,85 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
         <v>149</v>
       </c>
-      <c r="C1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>242591</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>242591</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>242591</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>242591</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>242591</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2851,118 +3104,122 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" customWidth="1"/>
-    <col min="11" max="12" width="26.7109375" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" customWidth="1"/>
-    <col min="14" max="14" width="29.7109375" customWidth="1"/>
-    <col min="15" max="16" width="27.7109375" customWidth="1"/>
-    <col min="17" max="17" width="30.7109375" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" customWidth="1"/>
-    <col min="19" max="19" width="25.7109375" customWidth="1"/>
-    <col min="20" max="20" width="51.7109375" customWidth="1"/>
-    <col min="21" max="21" width="49.7109375" customWidth="1"/>
-    <col min="22" max="22" width="37.7109375" customWidth="1"/>
-    <col min="23" max="23" width="19.7109375" customWidth="1"/>
-    <col min="24" max="24" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" customWidth="1"/>
+    <col min="12" max="13" width="26.7109375" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" customWidth="1"/>
+    <col min="16" max="17" width="27.7109375" customWidth="1"/>
+    <col min="18" max="18" width="30.7109375" customWidth="1"/>
+    <col min="19" max="19" width="27.7109375" customWidth="1"/>
+    <col min="20" max="20" width="25.7109375" customWidth="1"/>
+    <col min="21" max="21" width="51.7109375" customWidth="1"/>
+    <col min="22" max="22" width="49.7109375" customWidth="1"/>
+    <col min="23" max="23" width="37.7109375" customWidth="1"/>
+    <col min="24" max="24" width="19.7109375" customWidth="1"/>
+    <col min="25" max="25" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>180</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>181</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>182</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>183</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>184</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>185</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>186</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>187</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>188</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>189</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>190</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>191</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>192</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>193</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>194</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>195</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>196</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>197</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>198</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>199</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>200</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>201</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -3025,6 +3282,9 @@
         <v>20</v>
       </c>
       <c r="X2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3038,55 +3298,63 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>242591</v>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
     </row>
@@ -3100,96 +3368,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" customWidth="1"/>
-    <col min="17" max="19" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" customWidth="1"/>
+    <col min="18" max="20" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>41</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -3206,29 +3479,29 @@
       <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>74.5</v>
       </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
       <c r="L2" t="s">
         <v>20</v>
       </c>
       <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2">
         <v>7</v>
       </c>
-      <c r="O2" t="s">
-        <v>43</v>
-      </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="Q2" t="s">
         <v>20</v>
@@ -3237,6 +3510,9 @@
         <v>20</v>
       </c>
       <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3250,124 +3526,155 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>98</v>
-      </c>
       <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2" t="s">
         <v>204</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>242591</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
+      </c>
+      <c r="C3" t="s">
         <v>205</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>242591</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>242591</v>
+      </c>
+      <c r="C4" t="s">
         <v>206</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>242591</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>242591</v>
+      </c>
+      <c r="C5" t="s">
         <v>207</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>242591</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>242591</v>
+      </c>
+      <c r="C6" t="s">
         <v>208</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>242591</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>242591</v>
+      </c>
+      <c r="C7" t="s">
         <v>209</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>242591</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>242591</v>
+      </c>
+      <c r="C8" t="s">
         <v>210</v>
       </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>242591</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>242591</v>
+      </c>
+      <c r="C9" t="s">
         <v>211</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>242591</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>242591</v>
+      </c>
+      <c r="C10" t="s">
         <v>212</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3381,55 +3688,63 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>242591</v>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
     </row>
@@ -3443,102 +3758,127 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>98</v>
-      </c>
       <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2" t="s">
         <v>213</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>242591</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
+      </c>
+      <c r="C3" t="s">
         <v>214</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>242591</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>242591</v>
+      </c>
+      <c r="C4" t="s">
         <v>215</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>242591</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>242591</v>
+      </c>
+      <c r="C5" t="s">
         <v>216</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>242591</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>242591</v>
+      </c>
+      <c r="C6" t="s">
         <v>217</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>242591</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>242591</v>
+      </c>
+      <c r="C7" t="s">
         <v>218</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>242591</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>242591</v>
+      </c>
+      <c r="C8" t="s">
         <v>219</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3552,197 +3892,237 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>220</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>221</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2" t="s">
         <v>223</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>216</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>242591</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
+      </c>
+      <c r="C3" t="s">
         <v>223</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>230</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>242591</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>242591</v>
+      </c>
+      <c r="C4" t="s">
         <v>224</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>231</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>242591</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>242591</v>
+      </c>
+      <c r="C5" t="s">
         <v>224</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>232</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>242591</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>242591</v>
+      </c>
+      <c r="C6" t="s">
         <v>225</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>233</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>242591</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>242591</v>
+      </c>
+      <c r="C7" t="s">
         <v>225</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>234</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>242591</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>242591</v>
+      </c>
+      <c r="C8" t="s">
         <v>226</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>216</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>242591</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>242591</v>
+      </c>
+      <c r="C9" t="s">
         <v>227</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>230</v>
       </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>242591</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>242591</v>
+      </c>
+      <c r="C10" t="s">
         <v>228</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>231</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>242591</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>242591</v>
+      </c>
+      <c r="C11" t="s">
         <v>229</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>232</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>242591</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>242591</v>
+      </c>
+      <c r="C12" t="s">
         <v>227</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>233</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>242591</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>242591</v>
+      </c>
+      <c r="C13" t="s">
         <v>227</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>234</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3756,69 +4136,85 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
         <v>149</v>
       </c>
-      <c r="C1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>242591</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>242591</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>242591</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>242591</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>242591</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3832,102 +4228,127 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>235</v>
       </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2" t="s">
         <v>236</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>242591</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
+      </c>
+      <c r="C3" t="s">
         <v>237</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>242591</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>242591</v>
+      </c>
+      <c r="C4" t="s">
         <v>238</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>242591</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>242591</v>
+      </c>
+      <c r="C5" t="s">
         <v>239</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>242591</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>242591</v>
+      </c>
+      <c r="C6" t="s">
         <v>240</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>242591</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>242591</v>
+      </c>
+      <c r="C7" t="s">
         <v>241</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>242591</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>242591</v>
+      </c>
+      <c r="C8" t="s">
         <v>242</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3941,102 +4362,127 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>235</v>
       </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2" t="s">
         <v>236</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>242591</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
+      </c>
+      <c r="C3" t="s">
         <v>237</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>242591</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>242591</v>
+      </c>
+      <c r="C4" t="s">
         <v>238</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>242591</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>242591</v>
+      </c>
+      <c r="C5" t="s">
         <v>239</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>242591</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>242591</v>
+      </c>
+      <c r="C6" t="s">
         <v>240</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>242591</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>242591</v>
+      </c>
+      <c r="C7" t="s">
         <v>241</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>242591</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>242591</v>
+      </c>
+      <c r="C8" t="s">
         <v>242</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4050,102 +4496,127 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>235</v>
       </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2" t="s">
         <v>236</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>242591</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
+      </c>
+      <c r="C3" t="s">
         <v>237</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>242591</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>242591</v>
+      </c>
+      <c r="C4" t="s">
         <v>238</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>242591</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>242591</v>
+      </c>
+      <c r="C5" t="s">
         <v>239</v>
       </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>242591</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>242591</v>
+      </c>
+      <c r="C6" t="s">
         <v>240</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>242591</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>242591</v>
+      </c>
+      <c r="C7" t="s">
         <v>241</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>242591</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>242591</v>
+      </c>
+      <c r="C8" t="s">
         <v>242</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4159,58 +4630,66 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>243</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>244</v>
       </c>
-      <c r="D1" t="s">
-        <v>75</v>
-      </c>
       <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>242591</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>150</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -4221,13 +4700,16 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>242591</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>242591</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -4238,13 +4720,16 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>242591</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>242591</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -4254,6 +4739,29 @@
       </c>
       <c r="E5" t="s">
         <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>242591</v>
+      </c>
+      <c r="C6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4266,78 +4774,118 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>246</v>
-      </c>
       <c r="C1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>248</v>
-      </c>
       <c r="F1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
+        <v>255</v>
+      </c>
+      <c r="J1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45601</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45634</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45635</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J3" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4350,27 +4898,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="4" width="4.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="9" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="10" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>45</v>
@@ -4393,178 +4942,199 @@
       <c r="I1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>52</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
       <c r="I2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>242591</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3">
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>242591</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4">
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>242591</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>242591</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5">
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>242591</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>242591</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6">
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>242591</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>242591</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7">
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>242591</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
       <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4578,35 +5148,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="4" width="4.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="8" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
         <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
@@ -4615,162 +5186,183 @@
         <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="C2">
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>242591</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3">
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>242591</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4">
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>242591</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" t="s">
         <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>242591</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5">
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>242591</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" t="s">
         <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>242591</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6">
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>242591</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>242591</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7">
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>242591</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
       <c r="G7" t="s">
         <v>20</v>
       </c>
       <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4784,30 +5376,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
       </c>
       <c r="C1" t="s">
         <v>68</v>
@@ -4831,30 +5424,33 @@
         <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45608</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45602</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
+        <v>75</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45651</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45631</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -4862,7 +5458,10 @@
       <c r="I2">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4876,30 +5475,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C1" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4912,99 +5518,106 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>81</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>83</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>84</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>85</v>
       </c>
-      <c r="K1" t="s">
-        <v>51</v>
-      </c>
       <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>89</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
         <v>90</v>
       </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>91</v>
       </c>
-      <c r="J2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
       <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5018,55 +5631,63 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>242591</v>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
     </row>
@@ -5080,281 +5701,339 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>242591</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>242591</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>242591</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>242591</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>242591</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>101</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>242591</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>242591</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>102</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>242591</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>242591</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>103</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>242591</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>242591</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>104</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>242591</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>242591</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
         <v>105</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>242591</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>242591</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
         <v>106</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>242591</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>242591</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>107</v>
       </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>242591</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>242591</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>108</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>242591</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>242591</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>109</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>242591</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>242591</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
         <v>110</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>242591</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>242591</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
         <v>111</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>242591</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>242591</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
         <v>112</v>
       </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>242591</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>242591</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
         <v>113</v>
       </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>242591</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>242591</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
         <v>114</v>
       </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>242591</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>242591</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
         <v>115</v>
       </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>242591</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>242591</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
         <v>116</v>
       </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>242591</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>20</v>
       </c>
     </row>
